--- a/BackTest/2019-10-27 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-27 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>7900</v>
       </c>
       <c r="G2" t="n">
-        <v>-177292.3228696155</v>
+        <v>24.36666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>406.5040650406504</v>
       </c>
       <c r="G3" t="n">
-        <v>-176885.8188045749</v>
+        <v>24.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>119419.2274</v>
       </c>
       <c r="G4" t="n">
-        <v>-176885.8188045749</v>
+        <v>24.56666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>22321.9186</v>
       </c>
       <c r="G5" t="n">
-        <v>-199207.7374045749</v>
+        <v>24.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>94219.10550000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-293426.8429045749</v>
+        <v>24.36666666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>794.7817</v>
       </c>
       <c r="G7" t="n">
-        <v>-292632.0612045749</v>
+        <v>24.26666666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>1320.258</v>
       </c>
       <c r="G8" t="n">
-        <v>-291311.803204575</v>
+        <v>24.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>27926.7783</v>
       </c>
       <c r="G9" t="n">
-        <v>-263385.024904575</v>
+        <v>24.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>18266.6255</v>
       </c>
       <c r="G10" t="n">
-        <v>-281651.650404575</v>
+        <v>24.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>11195</v>
       </c>
       <c r="G11" t="n">
-        <v>-270456.650404575</v>
+        <v>24.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>4126.1365</v>
       </c>
       <c r="G12" t="n">
-        <v>-270456.650404575</v>
+        <v>24.36666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>2945.489</v>
       </c>
       <c r="G13" t="n">
-        <v>-270456.650404575</v>
+        <v>24.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>12086</v>
       </c>
       <c r="G14" t="n">
-        <v>-270456.650404575</v>
+        <v>24.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>50334.6872</v>
       </c>
       <c r="G15" t="n">
-        <v>-320791.337604575</v>
+        <v>24.36666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>12591.6203</v>
       </c>
       <c r="G16" t="n">
-        <v>-320791.337604575</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -958,6 +977,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>37812.7617</v>
       </c>
       <c r="G17" t="n">
-        <v>-358604.099304575</v>
+        <v>24.26666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -999,6 +1019,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1020,7 +1041,7 @@
         <v>17300</v>
       </c>
       <c r="G18" t="n">
-        <v>-341304.099304575</v>
+        <v>24.30000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,6 +1059,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1059,7 +1081,7 @@
         <v>1037.0944</v>
       </c>
       <c r="G19" t="n">
-        <v>-341304.099304575</v>
+        <v>24.33333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1077,6 +1099,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1098,7 +1121,7 @@
         <v>245.9016</v>
       </c>
       <c r="G20" t="n">
-        <v>-341304.099304575</v>
+        <v>24.4</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1118,6 +1141,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1139,7 +1163,7 @@
         <v>15933.3564</v>
       </c>
       <c r="G21" t="n">
-        <v>-341304.099304575</v>
+        <v>24.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1157,6 +1181,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,7 +1203,7 @@
         <v>1375</v>
       </c>
       <c r="G22" t="n">
-        <v>-341304.099304575</v>
+        <v>24.4</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1198,6 +1223,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1219,7 +1245,7 @@
         <v>36800</v>
       </c>
       <c r="G23" t="n">
-        <v>-341304.099304575</v>
+        <v>24.4</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1239,6 +1265,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1260,7 +1287,7 @@
         <v>5015.3419</v>
       </c>
       <c r="G24" t="n">
-        <v>-346319.441204575</v>
+        <v>24.36666666666666</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1280,6 +1307,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1301,7 +1329,7 @@
         <v>5015.3419</v>
       </c>
       <c r="G25" t="n">
-        <v>-341304.099304575</v>
+        <v>24.36666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1321,6 +1349,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,7 +1371,7 @@
         <v>10335.5918</v>
       </c>
       <c r="G26" t="n">
-        <v>-330968.507504575</v>
+        <v>24.4</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1362,6 +1391,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1383,7 +1413,7 @@
         <v>29341.461</v>
       </c>
       <c r="G27" t="n">
-        <v>-360309.968504575</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1401,6 +1431,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1422,7 +1453,7 @@
         <v>13931.4897</v>
       </c>
       <c r="G28" t="n">
-        <v>-360309.968504575</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1440,6 +1471,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1461,7 +1493,7 @@
         <v>19356.8332</v>
       </c>
       <c r="G29" t="n">
-        <v>-340953.135304575</v>
+        <v>24.46666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1481,6 +1513,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,7 +1535,7 @@
         <v>7743.7463</v>
       </c>
       <c r="G30" t="n">
-        <v>-340953.135304575</v>
+        <v>24.53333333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1520,6 +1553,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1541,7 +1575,7 @@
         <v>61222.96533495935</v>
       </c>
       <c r="G31" t="n">
-        <v>-279730.1699696157</v>
+        <v>24.66666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1561,6 +1595,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1582,7 +1617,7 @@
         <v>110895.1193506073</v>
       </c>
       <c r="G32" t="n">
-        <v>-279730.1699696157</v>
+        <v>24.73333333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1600,6 +1635,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1621,7 +1657,7 @@
         <v>27829.17370481928</v>
       </c>
       <c r="G33" t="n">
-        <v>-279730.1699696157</v>
+        <v>24.79999999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1639,6 +1675,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1660,7 +1697,7 @@
         <v>4.9392712550607e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>-279730.1699696157</v>
+        <v>24.79999999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1678,6 +1715,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1699,7 +1737,7 @@
         <v>106274.1858506073</v>
       </c>
       <c r="G35" t="n">
-        <v>-173455.9841190084</v>
+        <v>24.83333333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1717,6 +1755,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1738,7 +1777,7 @@
         <v>207790.2748951807</v>
       </c>
       <c r="G36" t="n">
-        <v>-173455.9841190084</v>
+        <v>24.86666666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1756,6 +1795,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1777,23 +1817,24 @@
         <v>78497.24069999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-94958.74341900842</v>
+        <v>24.93333333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1.016528925619835</v>
       </c>
     </row>
     <row r="38">
@@ -1816,24 +1857,21 @@
         <v>9745.8799</v>
       </c>
       <c r="G38" t="n">
-        <v>-94958.74341900842</v>
+        <v>24.96666666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1855,24 +1893,21 @@
         <v>74915.28</v>
       </c>
       <c r="G39" t="n">
-        <v>-169874.0234190084</v>
+        <v>24.96666666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1894,24 +1929,21 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-169884.0234190084</v>
+        <v>24.89999999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1933,7 +1965,7 @@
         <v>1582.2226</v>
       </c>
       <c r="G41" t="n">
-        <v>-168301.8008190084</v>
+        <v>24.86666666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1943,14 +1975,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1972,7 +2001,7 @@
         <v>13417.7774</v>
       </c>
       <c r="G42" t="n">
-        <v>-168301.8008190084</v>
+        <v>24.86666666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1982,14 +2011,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2011,24 +2037,21 @@
         <v>221452.5954</v>
       </c>
       <c r="G43" t="n">
-        <v>-168301.8008190084</v>
+        <v>24.89999999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2050,24 +2073,21 @@
         <v>5792.0376</v>
       </c>
       <c r="G44" t="n">
-        <v>-168301.8008190084</v>
+        <v>24.89999999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2089,24 +2109,21 @@
         <v>18498.5877</v>
       </c>
       <c r="G45" t="n">
-        <v>-149803.2131190084</v>
+        <v>24.93333333333331</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2128,24 +2145,21 @@
         <v>239999.244</v>
       </c>
       <c r="G46" t="n">
-        <v>-149803.2131190084</v>
+        <v>24.96666666666664</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2167,24 +2181,21 @@
         <v>30295.0597</v>
       </c>
       <c r="G47" t="n">
-        <v>-119508.1534190084</v>
+        <v>25.0333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2206,24 +2217,21 @@
         <v>40419.2799</v>
       </c>
       <c r="G48" t="n">
-        <v>-159927.4333190084</v>
+        <v>24.93333333333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2245,24 +2253,21 @@
         <v>2404</v>
       </c>
       <c r="G49" t="n">
-        <v>-157523.4333190084</v>
+        <v>24.86666666666664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2284,7 +2289,7 @@
         <v>11958.4662</v>
       </c>
       <c r="G50" t="n">
-        <v>-145564.9671190084</v>
+        <v>24.79999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2294,14 +2299,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2323,24 +2325,21 @@
         <v>34.7035</v>
       </c>
       <c r="G51" t="n">
-        <v>-145530.2636190084</v>
+        <v>24.99999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2362,7 +2361,7 @@
         <v>1311.578</v>
       </c>
       <c r="G52" t="n">
-        <v>-146841.8416190084</v>
+        <v>25.03333333333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2372,12 +2371,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2399,7 +2397,7 @@
         <v>15115.16</v>
       </c>
       <c r="G53" t="n">
-        <v>-161957.0016190084</v>
+        <v>24.99999999999997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2413,6 +2411,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2434,7 +2433,7 @@
         <v>30253.9388</v>
       </c>
       <c r="G54" t="n">
-        <v>-161957.0016190084</v>
+        <v>24.8333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2448,6 +2447,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2469,13 +2469,13 @@
         <v>1446.3911</v>
       </c>
       <c r="G55" t="n">
-        <v>-160510.6105190084</v>
+        <v>24.8333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2483,6 +2483,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2504,13 +2505,13 @@
         <v>2450.5348</v>
       </c>
       <c r="G56" t="n">
-        <v>-160510.6105190084</v>
+        <v>24.86666666666664</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2518,6 +2519,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2539,13 +2541,13 @@
         <v>435</v>
       </c>
       <c r="G57" t="n">
-        <v>-160510.6105190084</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2553,6 +2555,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2574,7 +2577,7 @@
         <v>3951.612</v>
       </c>
       <c r="G58" t="n">
-        <v>-160510.6105190084</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2588,6 +2591,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2609,7 +2613,7 @@
         <v>14818.5742</v>
       </c>
       <c r="G59" t="n">
-        <v>-145692.0363190084</v>
+        <v>24.9333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2623,6 +2627,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2644,7 +2649,7 @@
         <v>29767.3568</v>
       </c>
       <c r="G60" t="n">
-        <v>-175459.3931190084</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2658,6 +2663,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2679,13 +2685,13 @@
         <v>4960.791</v>
       </c>
       <c r="G61" t="n">
-        <v>-170498.6021190084</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2693,6 +2699,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2714,13 +2721,13 @@
         <v>33495.8634</v>
       </c>
       <c r="G62" t="n">
-        <v>-170498.6021190084</v>
+        <v>24.86666666666664</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2728,6 +2735,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2749,7 +2757,7 @@
         <v>94296</v>
       </c>
       <c r="G63" t="n">
-        <v>-264794.6021190084</v>
+        <v>24.8333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2763,6 +2771,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2784,13 +2793,13 @@
         <v>1006.739</v>
       </c>
       <c r="G64" t="n">
-        <v>-264794.6021190084</v>
+        <v>24.76666666666664</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2798,6 +2807,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2819,7 +2829,7 @@
         <v>47240.3666</v>
       </c>
       <c r="G65" t="n">
-        <v>-264794.6021190084</v>
+        <v>24.69999999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2833,6 +2843,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2854,13 +2865,13 @@
         <v>3058.753</v>
       </c>
       <c r="G66" t="n">
-        <v>-261735.8491190084</v>
+        <v>24.79999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2868,6 +2879,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2889,13 +2901,13 @@
         <v>70591.0003</v>
       </c>
       <c r="G67" t="n">
-        <v>-332326.8494190084</v>
+        <v>24.86666666666664</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2903,6 +2915,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2924,13 +2937,13 @@
         <v>17172.6408</v>
       </c>
       <c r="G68" t="n">
-        <v>-332326.8494190084</v>
+        <v>24.93333333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2938,6 +2951,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2959,13 +2973,13 @@
         <v>1876.82</v>
       </c>
       <c r="G69" t="n">
-        <v>-330450.0294190084</v>
+        <v>24.93333333333331</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2973,6 +2987,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2994,13 +3009,13 @@
         <v>17300</v>
       </c>
       <c r="G70" t="n">
-        <v>-330450.0294190084</v>
+        <v>24.96666666666664</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3008,6 +3023,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3029,13 +3045,13 @@
         <v>3475.7934</v>
       </c>
       <c r="G71" t="n">
-        <v>-333925.8228190084</v>
+        <v>24.96666666666664</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3043,6 +3059,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3064,7 +3081,7 @@
         <v>11887</v>
       </c>
       <c r="G72" t="n">
-        <v>-322038.8228190084</v>
+        <v>24.96666666666664</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3078,6 +3095,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3099,13 +3117,13 @@
         <v>72060.56</v>
       </c>
       <c r="G73" t="n">
-        <v>-394099.3828190084</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3113,6 +3131,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3134,7 +3153,7 @@
         <v>45301.3765</v>
       </c>
       <c r="G74" t="n">
-        <v>-348798.0063190084</v>
+        <v>24.93333333333331</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3148,6 +3167,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3169,7 +3189,7 @@
         <v>1765.9835</v>
       </c>
       <c r="G75" t="n">
-        <v>-348798.0063190084</v>
+        <v>24.93333333333331</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3183,6 +3203,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3204,7 +3225,7 @@
         <v>32520.4357</v>
       </c>
       <c r="G76" t="n">
-        <v>-381318.4420190084</v>
+        <v>24.93333333333331</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3218,6 +3239,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3239,7 +3261,7 @@
         <v>92830.2311</v>
       </c>
       <c r="G77" t="n">
-        <v>-381318.4420190084</v>
+        <v>24.86666666666664</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3253,6 +3275,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3274,7 +3297,7 @@
         <v>67814.1869</v>
       </c>
       <c r="G78" t="n">
-        <v>-381318.4420190084</v>
+        <v>24.79999999999997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3288,6 +3311,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3309,7 +3333,7 @@
         <v>22165</v>
       </c>
       <c r="G79" t="n">
-        <v>-381318.4420190084</v>
+        <v>24.79999999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3323,6 +3347,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3344,7 +3369,7 @@
         <v>4811.8859</v>
       </c>
       <c r="G80" t="n">
-        <v>-381318.4420190084</v>
+        <v>24.79999999999997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3358,6 +3383,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3379,7 +3405,7 @@
         <v>6800</v>
       </c>
       <c r="G81" t="n">
-        <v>-388118.4420190084</v>
+        <v>24.76666666666664</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3393,6 +3419,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3414,7 +3441,7 @@
         <v>14000</v>
       </c>
       <c r="G82" t="n">
-        <v>-388118.4420190084</v>
+        <v>24.73333333333331</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3428,6 +3455,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3449,7 +3477,7 @@
         <v>2449.432</v>
       </c>
       <c r="G83" t="n">
-        <v>-388118.4420190084</v>
+        <v>24.69999999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3463,6 +3491,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3484,7 +3513,7 @@
         <v>27500</v>
       </c>
       <c r="G84" t="n">
-        <v>-388118.4420190084</v>
+        <v>24.69999999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3498,6 +3527,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3519,7 +3549,7 @@
         <v>50</v>
       </c>
       <c r="G85" t="n">
-        <v>-388118.4420190084</v>
+        <v>24.69999999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3533,6 +3563,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3554,7 +3585,7 @@
         <v>4264.5736</v>
       </c>
       <c r="G86" t="n">
-        <v>-392383.0156190085</v>
+        <v>24.66666666666664</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3568,6 +3599,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3589,7 +3621,7 @@
         <v>24579.1164</v>
       </c>
       <c r="G87" t="n">
-        <v>-392383.0156190085</v>
+        <v>24.63333333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3603,6 +3635,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3624,7 +3657,7 @@
         <v>1570.055</v>
       </c>
       <c r="G88" t="n">
-        <v>-393953.0706190084</v>
+        <v>24.53333333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3638,6 +3671,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3659,7 +3693,7 @@
         <v>1967</v>
       </c>
       <c r="G89" t="n">
-        <v>-393953.0706190084</v>
+        <v>24.46666666666664</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3673,6 +3707,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3694,7 +3729,7 @@
         <v>5749.9995</v>
       </c>
       <c r="G90" t="n">
-        <v>-388203.0711190085</v>
+        <v>24.59999999999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3708,6 +3743,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3729,7 +3765,7 @@
         <v>4980.8051</v>
       </c>
       <c r="G91" t="n">
-        <v>-388203.0711190085</v>
+        <v>24.79999999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3743,6 +3779,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3764,7 +3801,7 @@
         <v>30</v>
       </c>
       <c r="G92" t="n">
-        <v>-388173.0711190085</v>
+        <v>25.0333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3778,6 +3815,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3799,7 +3837,7 @@
         <v>891.0099</v>
       </c>
       <c r="G93" t="n">
-        <v>-388173.0711190085</v>
+        <v>25.06666666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3813,6 +3851,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3834,7 +3873,7 @@
         <v>157.5248</v>
       </c>
       <c r="G94" t="n">
-        <v>-388173.0711190085</v>
+        <v>25.09999999999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3848,6 +3887,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3869,7 +3909,7 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-388173.0711190085</v>
+        <v>25.09999999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3883,6 +3923,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3904,7 +3945,7 @@
         <v>1721.6294</v>
       </c>
       <c r="G96" t="n">
-        <v>-388173.0711190085</v>
+        <v>25.09999999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3918,6 +3959,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3939,7 +3981,7 @@
         <v>5700</v>
       </c>
       <c r="G97" t="n">
-        <v>-393873.0711190085</v>
+        <v>24.99999999999996</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3953,6 +3995,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3974,7 +4017,7 @@
         <v>7769.916</v>
       </c>
       <c r="G98" t="n">
-        <v>-386103.1551190084</v>
+        <v>24.9333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3988,6 +4031,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4009,7 +4053,7 @@
         <v>6582.4512</v>
       </c>
       <c r="G99" t="n">
-        <v>-386103.1551190084</v>
+        <v>24.86666666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4023,6 +4067,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4044,7 +4089,7 @@
         <v>3828.0564</v>
       </c>
       <c r="G100" t="n">
-        <v>-386103.1551190084</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4058,6 +4103,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4079,7 +4125,7 @@
         <v>15800</v>
       </c>
       <c r="G101" t="n">
-        <v>-401903.1551190084</v>
+        <v>24.86666666666664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4093,6 +4139,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4114,7 +4161,7 @@
         <v>11900</v>
       </c>
       <c r="G102" t="n">
-        <v>-413803.1551190084</v>
+        <v>24.76666666666663</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4128,6 +4175,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4149,7 +4197,7 @@
         <v>3985.694</v>
       </c>
       <c r="G103" t="n">
-        <v>-413803.1551190084</v>
+        <v>24.66666666666663</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4163,6 +4211,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4184,7 +4233,7 @@
         <v>26514.2312</v>
       </c>
       <c r="G104" t="n">
-        <v>-440317.3863190084</v>
+        <v>24.56666666666663</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4198,6 +4247,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4219,7 +4269,7 @@
         <v>67230.599</v>
       </c>
       <c r="G105" t="n">
-        <v>-373086.7873190084</v>
+        <v>24.69999999999996</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4233,6 +4283,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4254,7 +4305,7 @@
         <v>90.53489999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-373177.3222190085</v>
+        <v>24.66666666666663</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4268,6 +4319,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4289,7 +4341,7 @@
         <v>8083.9919</v>
       </c>
       <c r="G107" t="n">
-        <v>-365093.3303190084</v>
+        <v>24.76666666666663</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4303,6 +4355,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4324,7 +4377,7 @@
         <v>11857.2825</v>
       </c>
       <c r="G108" t="n">
-        <v>-376950.6128190084</v>
+        <v>24.6333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4338,6 +4391,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4359,7 +4413,7 @@
         <v>6383.2294</v>
       </c>
       <c r="G109" t="n">
-        <v>-376950.6128190084</v>
+        <v>24.66666666666663</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4373,6 +4427,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4394,7 +4449,7 @@
         <v>10600</v>
       </c>
       <c r="G110" t="n">
-        <v>-366350.6128190084</v>
+        <v>24.7333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4408,6 +4463,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4429,7 +4485,7 @@
         <v>6314.3917</v>
       </c>
       <c r="G111" t="n">
-        <v>-366350.6128190084</v>
+        <v>24.86666666666663</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4443,6 +4499,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4464,7 +4521,7 @@
         <v>1436</v>
       </c>
       <c r="G112" t="n">
-        <v>-366350.6128190084</v>
+        <v>24.99999999999996</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4478,6 +4535,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4499,7 +4557,7 @@
         <v>287</v>
       </c>
       <c r="G113" t="n">
-        <v>-366350.6128190084</v>
+        <v>24.99999999999996</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4513,6 +4571,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4534,7 +4593,7 @@
         <v>504</v>
       </c>
       <c r="G114" t="n">
-        <v>-366854.6128190084</v>
+        <v>24.96666666666663</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4548,6 +4607,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4569,7 +4629,7 @@
         <v>14980.522</v>
       </c>
       <c r="G115" t="n">
-        <v>-381835.1348190084</v>
+        <v>24.86666666666663</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4583,6 +4643,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4604,7 +4665,7 @@
         <v>3491.7118</v>
       </c>
       <c r="G116" t="n">
-        <v>-378343.4230190084</v>
+        <v>24.89999999999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4618,6 +4679,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4639,7 +4701,7 @@
         <v>251298.3826</v>
       </c>
       <c r="G117" t="n">
-        <v>-629641.8056190084</v>
+        <v>24.9333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4653,6 +4715,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4674,7 +4737,7 @@
         <v>62962.9544</v>
       </c>
       <c r="G118" t="n">
-        <v>-566678.8512190083</v>
+        <v>25.09999999999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4688,6 +4751,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4709,7 +4773,7 @@
         <v>18177.2444</v>
       </c>
       <c r="G119" t="n">
-        <v>-584856.0956190083</v>
+        <v>25.06666666666663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4723,6 +4787,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4744,7 +4809,7 @@
         <v>6800</v>
       </c>
       <c r="G120" t="n">
-        <v>-591656.0956190083</v>
+        <v>24.9333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4758,6 +4823,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4779,7 +4845,7 @@
         <v>14700</v>
       </c>
       <c r="G121" t="n">
-        <v>-606356.0956190083</v>
+        <v>24.66666666666663</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4793,6 +4859,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4814,7 +4881,7 @@
         <v>343</v>
       </c>
       <c r="G122" t="n">
-        <v>-606013.0956190083</v>
+        <v>24.49999999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4828,6 +4895,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4849,7 +4917,7 @@
         <v>7400</v>
       </c>
       <c r="G123" t="n">
-        <v>-613413.0956190083</v>
+        <v>24.4333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4863,6 +4931,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4884,7 +4953,7 @@
         <v>3800</v>
       </c>
       <c r="G124" t="n">
-        <v>-613413.0956190083</v>
+        <v>24.4333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4898,6 +4967,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4919,7 +4989,7 @@
         <v>5757.6997</v>
       </c>
       <c r="G125" t="n">
-        <v>-613413.0956190083</v>
+        <v>24.39999999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4933,6 +5003,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4954,7 +5025,7 @@
         <v>1326.5121</v>
       </c>
       <c r="G126" t="n">
-        <v>-612086.5835190082</v>
+        <v>24.46666666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4968,6 +5039,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4989,7 +5061,7 @@
         <v>6489.4988</v>
       </c>
       <c r="G127" t="n">
-        <v>-612086.5835190082</v>
+        <v>24.53333333333329</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5003,6 +5075,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5024,7 +5097,7 @@
         <v>117802.6883</v>
       </c>
       <c r="G128" t="n">
-        <v>-729889.2718190083</v>
+        <v>24.53333333333329</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5038,6 +5111,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5059,7 +5133,7 @@
         <v>1603.4831</v>
       </c>
       <c r="G129" t="n">
-        <v>-729889.2718190083</v>
+        <v>24.46666666666663</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5073,6 +5147,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5094,7 +5169,7 @@
         <v>3610.3342</v>
       </c>
       <c r="G130" t="n">
-        <v>-729889.2718190083</v>
+        <v>24.39999999999997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5108,6 +5183,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-27 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="C2" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="D2" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="E2" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="F2" t="n">
-        <v>7900</v>
+        <v>3803.421</v>
       </c>
       <c r="G2" t="n">
-        <v>24.36666666666666</v>
+        <v>-131196.0976190083</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="C3" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="F3" t="n">
-        <v>406.5040650406504</v>
+        <v>104970.4727</v>
       </c>
       <c r="G3" t="n">
-        <v>24.5</v>
+        <v>-236166.5703190083</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>23.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E4" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="F4" t="n">
-        <v>119419.2274</v>
+        <v>1817.5841</v>
       </c>
       <c r="G4" t="n">
-        <v>24.56666666666666</v>
+        <v>-234348.9862190082</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>22321.9186</v>
+        <v>70713.64810000001</v>
       </c>
       <c r="G5" t="n">
-        <v>24.5</v>
+        <v>-163635.3381190082</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>23.9</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C6" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E6" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="F6" t="n">
-        <v>94219.10550000001</v>
+        <v>1451.9901</v>
       </c>
       <c r="G6" t="n">
-        <v>24.36666666666666</v>
+        <v>-162183.3480190082</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +625,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C7" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="E7" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F7" t="n">
-        <v>794.7817</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>24.26666666666666</v>
+        <v>-162173.3480190082</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +665,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +680,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>1320.258</v>
+        <v>5530.2916</v>
       </c>
       <c r="G8" t="n">
-        <v>24.3</v>
+        <v>-167703.6396190082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +705,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +720,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="D9" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="E9" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F9" t="n">
-        <v>27926.7783</v>
+        <v>5986.0295</v>
       </c>
       <c r="G9" t="n">
-        <v>24.4</v>
+        <v>-161717.6101190082</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>24</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +762,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D10" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="E10" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F10" t="n">
-        <v>18266.6255</v>
+        <v>5415.9151</v>
       </c>
       <c r="G10" t="n">
-        <v>24.4</v>
+        <v>-156301.6950190082</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +787,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +802,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D11" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="E11" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F11" t="n">
-        <v>11195</v>
+        <v>6802.3942</v>
       </c>
       <c r="G11" t="n">
-        <v>24.4</v>
+        <v>-156301.6950190082</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +827,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +842,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E12" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="F12" t="n">
-        <v>4126.1365</v>
+        <v>12000</v>
       </c>
       <c r="G12" t="n">
-        <v>24.36666666666666</v>
+        <v>-144301.6950190082</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +867,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +882,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="C13" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D13" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="E13" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F13" t="n">
-        <v>2945.489</v>
+        <v>1837.2469</v>
       </c>
       <c r="G13" t="n">
-        <v>24.4</v>
+        <v>-146138.9419190082</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +907,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +922,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F14" t="n">
-        <v>12086</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>24.4</v>
+        <v>-146128.9419190082</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +947,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +962,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C15" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D15" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E15" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F15" t="n">
-        <v>50334.6872</v>
+        <v>8474.8087</v>
       </c>
       <c r="G15" t="n">
-        <v>24.36666666666666</v>
+        <v>-146128.9419190082</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +987,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,36 +1002,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C16" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E16" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F16" t="n">
-        <v>12591.6203</v>
+        <v>934.0549</v>
       </c>
       <c r="G16" t="n">
-        <v>24.33333333333333</v>
+        <v>-145194.8870190082</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -984,32 +1042,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="C17" t="n">
         <v>24.2</v>
       </c>
       <c r="D17" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E17" t="n">
         <v>24.2</v>
       </c>
       <c r="F17" t="n">
-        <v>37812.7617</v>
+        <v>40854.2299</v>
       </c>
       <c r="G17" t="n">
-        <v>24.26666666666667</v>
+        <v>-186049.1169190082</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1026,22 +1082,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C18" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="D18" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E18" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="F18" t="n">
-        <v>17300</v>
+        <v>75.0406</v>
       </c>
       <c r="G18" t="n">
-        <v>24.30000000000001</v>
+        <v>-185974.0763190082</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1078,10 +1134,10 @@
         <v>24.4</v>
       </c>
       <c r="F19" t="n">
-        <v>1037.0944</v>
+        <v>12.1362</v>
       </c>
       <c r="G19" t="n">
-        <v>24.33333333333334</v>
+        <v>-185986.2125190082</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1118,20 +1174,18 @@
         <v>24.4</v>
       </c>
       <c r="F20" t="n">
-        <v>245.9016</v>
+        <v>5379</v>
       </c>
       <c r="G20" t="n">
-        <v>24.4</v>
+        <v>-185986.2125190082</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1160,10 +1214,10 @@
         <v>24.4</v>
       </c>
       <c r="F21" t="n">
-        <v>15933.3564</v>
+        <v>15000</v>
       </c>
       <c r="G21" t="n">
-        <v>24.4</v>
+        <v>-185986.2125190082</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1188,32 +1242,30 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C22" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D22" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="E22" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1375</v>
+        <v>5820.128849392712</v>
       </c>
       <c r="G22" t="n">
-        <v>24.4</v>
+        <v>-180166.0836696155</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1233,29 +1285,27 @@
         <v>24.4</v>
       </c>
       <c r="C23" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D23" t="n">
         <v>24.4</v>
       </c>
       <c r="E23" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F23" t="n">
-        <v>36800</v>
+        <v>12223</v>
       </c>
       <c r="G23" t="n">
-        <v>24.4</v>
+        <v>-192389.0836696155</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1272,32 +1322,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="C24" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D24" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="E24" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F24" t="n">
-        <v>5015.3419</v>
+        <v>4849.1224</v>
       </c>
       <c r="G24" t="n">
-        <v>24.36666666666666</v>
+        <v>-187539.9612696155</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1326,20 +1374,18 @@
         <v>24.4</v>
       </c>
       <c r="F25" t="n">
-        <v>5015.3419</v>
+        <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>24.36666666666666</v>
+        <v>-187739.9612696155</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1356,32 +1402,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="C26" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="D26" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="E26" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="F26" t="n">
-        <v>10335.5918</v>
+        <v>87</v>
       </c>
       <c r="G26" t="n">
-        <v>24.4</v>
+        <v>-187826.9612696155</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1398,22 +1442,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C27" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D27" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E27" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F27" t="n">
-        <v>29341.461</v>
+        <v>2625.3526</v>
       </c>
       <c r="G27" t="n">
-        <v>24.43333333333333</v>
+        <v>-190452.3138696156</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1438,22 +1482,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C28" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D28" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E28" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F28" t="n">
-        <v>13931.4897</v>
+        <v>13365.9981</v>
       </c>
       <c r="G28" t="n">
-        <v>24.43333333333333</v>
+        <v>-190452.3138696156</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1478,32 +1522,30 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="C29" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="D29" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="E29" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="F29" t="n">
-        <v>19356.8332</v>
+        <v>2326.8256</v>
       </c>
       <c r="G29" t="n">
-        <v>24.46666666666666</v>
+        <v>-188125.4882696155</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1520,22 +1562,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="C30" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="D30" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="E30" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="F30" t="n">
-        <v>7743.7463</v>
+        <v>2933.1654</v>
       </c>
       <c r="G30" t="n">
-        <v>24.53333333333332</v>
+        <v>-185192.3228696155</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1560,32 +1602,30 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C31" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="D31" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="E31" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F31" t="n">
-        <v>61222.96533495935</v>
+        <v>7900</v>
       </c>
       <c r="G31" t="n">
-        <v>24.66666666666666</v>
+        <v>-177292.3228696155</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1602,22 +1642,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="C32" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="D32" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="E32" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="F32" t="n">
-        <v>110895.1193506073</v>
+        <v>406.5040650406504</v>
       </c>
       <c r="G32" t="n">
-        <v>24.73333333333332</v>
+        <v>-176885.8188045749</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1642,22 +1682,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="C33" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="D33" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="E33" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="F33" t="n">
-        <v>27829.17370481928</v>
+        <v>119419.2274</v>
       </c>
       <c r="G33" t="n">
-        <v>24.79999999999998</v>
+        <v>-176885.8188045749</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1682,22 +1722,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="C34" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="D34" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="E34" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="F34" t="n">
-        <v>4.9392712550607e-05</v>
+        <v>22321.9186</v>
       </c>
       <c r="G34" t="n">
-        <v>24.79999999999998</v>
+        <v>-199207.7374045749</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1722,22 +1762,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="C35" t="n">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="D35" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E35" t="n">
-        <v>24.8</v>
+        <v>24.2</v>
       </c>
       <c r="F35" t="n">
-        <v>106274.1858506073</v>
+        <v>94219.10550000001</v>
       </c>
       <c r="G35" t="n">
-        <v>24.83333333333332</v>
+        <v>-293426.8429045749</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1762,22 +1802,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="C36" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="D36" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="E36" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="F36" t="n">
-        <v>207790.2748951807</v>
+        <v>794.7817</v>
       </c>
       <c r="G36" t="n">
-        <v>24.86666666666665</v>
+        <v>-292632.0612045749</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1802,72 +1842,76 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="E37" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F37" t="n">
-        <v>78497.24069999999</v>
+        <v>1320.258</v>
       </c>
       <c r="G37" t="n">
-        <v>24.93333333333332</v>
+        <v>-291311.803204575</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>1.016528925619835</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="F38" t="n">
-        <v>9745.8799</v>
+        <v>27926.7783</v>
       </c>
       <c r="G38" t="n">
-        <v>24.96666666666665</v>
+        <v>-263385.024904575</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +1922,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="C39" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="E39" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="F39" t="n">
-        <v>74915.28</v>
+        <v>18266.6255</v>
       </c>
       <c r="G39" t="n">
-        <v>24.96666666666665</v>
+        <v>-281651.650404575</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +1962,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="C40" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="D40" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="E40" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>11195</v>
       </c>
       <c r="G40" t="n">
-        <v>24.89999999999998</v>
+        <v>-270456.650404575</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2002,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C41" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D41" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E41" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F41" t="n">
-        <v>1582.2226</v>
+        <v>4126.1365</v>
       </c>
       <c r="G41" t="n">
-        <v>24.86666666666665</v>
+        <v>-270456.650404575</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1975,7 +2027,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2042,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C42" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D42" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E42" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F42" t="n">
-        <v>13417.7774</v>
+        <v>2945.489</v>
       </c>
       <c r="G42" t="n">
-        <v>24.86666666666665</v>
+        <v>-270456.650404575</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2011,7 +2067,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2082,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C43" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D43" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E43" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F43" t="n">
-        <v>221452.5954</v>
+        <v>12086</v>
       </c>
       <c r="G43" t="n">
-        <v>24.89999999999998</v>
+        <v>-270456.650404575</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2122,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C44" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="D44" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E44" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="F44" t="n">
-        <v>5792.0376</v>
+        <v>50334.6872</v>
       </c>
       <c r="G44" t="n">
-        <v>24.89999999999998</v>
+        <v>-320791.337604575</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2162,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="E45" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="F45" t="n">
-        <v>18498.5877</v>
+        <v>12591.6203</v>
       </c>
       <c r="G45" t="n">
-        <v>24.93333333333331</v>
+        <v>-320791.337604575</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2202,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="E46" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="F46" t="n">
-        <v>239999.244</v>
+        <v>37812.7617</v>
       </c>
       <c r="G46" t="n">
-        <v>24.96666666666664</v>
+        <v>-358604.099304575</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2242,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C47" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="D47" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="E47" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="F47" t="n">
-        <v>30295.0597</v>
+        <v>17300</v>
       </c>
       <c r="G47" t="n">
-        <v>25.0333333333333</v>
+        <v>-341304.099304575</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2282,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C48" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D48" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="E48" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F48" t="n">
-        <v>40419.2799</v>
+        <v>1037.0944</v>
       </c>
       <c r="G48" t="n">
-        <v>24.93333333333331</v>
+        <v>-341304.099304575</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2322,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="C49" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="D49" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="E49" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="F49" t="n">
-        <v>2404</v>
+        <v>245.9016</v>
       </c>
       <c r="G49" t="n">
-        <v>24.86666666666664</v>
+        <v>-341304.099304575</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2362,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="C50" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D50" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E50" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="F50" t="n">
-        <v>11958.4662</v>
+        <v>15933.3564</v>
       </c>
       <c r="G50" t="n">
-        <v>24.79999999999997</v>
+        <v>-341304.099304575</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2299,7 +2387,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2402,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="C51" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="D51" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="E51" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="F51" t="n">
-        <v>34.7035</v>
+        <v>1375</v>
       </c>
       <c r="G51" t="n">
-        <v>24.99999999999997</v>
+        <v>-341304.099304575</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2442,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C52" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="E52" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F52" t="n">
-        <v>1311.578</v>
+        <v>36800</v>
       </c>
       <c r="G52" t="n">
-        <v>25.03333333333331</v>
+        <v>-341304.099304575</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2482,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>24.3</v>
       </c>
       <c r="C53" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="D53" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="E53" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="F53" t="n">
-        <v>15115.16</v>
+        <v>5015.3419</v>
       </c>
       <c r="G53" t="n">
-        <v>24.99999999999997</v>
+        <v>-346319.441204575</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2522,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C54" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="D54" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E54" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="F54" t="n">
-        <v>30253.9388</v>
+        <v>5015.3419</v>
       </c>
       <c r="G54" t="n">
-        <v>24.8333333333333</v>
+        <v>-341304.099304575</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2562,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="C55" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="E55" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1446.3911</v>
+        <v>10335.5918</v>
       </c>
       <c r="G55" t="n">
-        <v>24.8333333333333</v>
+        <v>-330968.507504575</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2602,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C56" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D56" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E56" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F56" t="n">
-        <v>2450.5348</v>
+        <v>29341.461</v>
       </c>
       <c r="G56" t="n">
-        <v>24.86666666666664</v>
+        <v>-360309.968504575</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2642,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="C57" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D57" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="E57" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F57" t="n">
-        <v>435</v>
+        <v>13931.4897</v>
       </c>
       <c r="G57" t="n">
-        <v>24.89999999999997</v>
+        <v>-360309.968504575</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2562,32 +2682,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="C58" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="D58" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="E58" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="F58" t="n">
-        <v>3951.612</v>
+        <v>19356.8332</v>
       </c>
       <c r="G58" t="n">
-        <v>24.89999999999997</v>
+        <v>-340953.135304575</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2722,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D59" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="E59" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="F59" t="n">
-        <v>14818.5742</v>
+        <v>7743.7463</v>
       </c>
       <c r="G59" t="n">
-        <v>24.9333333333333</v>
+        <v>-340953.135304575</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2762,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="C60" t="n">
         <v>24.8</v>
       </c>
       <c r="D60" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E60" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="F60" t="n">
-        <v>29767.3568</v>
+        <v>61222.96533495935</v>
       </c>
       <c r="G60" t="n">
-        <v>24.89999999999997</v>
+        <v>-279730.1699696157</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2673,29 +2805,33 @@
         <v>24.8</v>
       </c>
       <c r="C61" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D61" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E61" t="n">
         <v>24.8</v>
       </c>
       <c r="F61" t="n">
-        <v>4960.791</v>
+        <v>110895.1193506073</v>
       </c>
       <c r="G61" t="n">
-        <v>24.89999999999997</v>
+        <v>-279730.1699696157</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2709,29 +2845,33 @@
         <v>24.9</v>
       </c>
       <c r="C62" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D62" t="n">
         <v>24.9</v>
       </c>
       <c r="E62" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F62" t="n">
-        <v>33495.8634</v>
+        <v>27829.17370481928</v>
       </c>
       <c r="G62" t="n">
-        <v>24.86666666666664</v>
+        <v>-279730.1699696157</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2882,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C63" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D63" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E63" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F63" t="n">
-        <v>94296</v>
+        <v>4.9392712550607e-05</v>
       </c>
       <c r="G63" t="n">
-        <v>24.8333333333333</v>
+        <v>-279730.1699696157</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2767,10 +2907,12 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2778,22 +2920,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C64" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D64" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E64" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F64" t="n">
-        <v>1006.739</v>
+        <v>106274.1858506073</v>
       </c>
       <c r="G64" t="n">
-        <v>24.76666666666664</v>
+        <v>-173455.9841190084</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2814,28 +2956,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C65" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E65" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F65" t="n">
-        <v>47240.3666</v>
+        <v>207790.2748951807</v>
       </c>
       <c r="G65" t="n">
-        <v>24.69999999999998</v>
+        <v>-173455.9841190084</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2850,7 +2992,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C66" t="n">
         <v>25</v>
@@ -2859,13 +3001,13 @@
         <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F66" t="n">
-        <v>3058.753</v>
+        <v>78497.24069999999</v>
       </c>
       <c r="G66" t="n">
-        <v>24.79999999999998</v>
+        <v>-94958.74341900842</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2889,19 +3031,19 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
         <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F67" t="n">
-        <v>70591.0003</v>
+        <v>9745.8799</v>
       </c>
       <c r="G67" t="n">
-        <v>24.86666666666664</v>
+        <v>-94958.74341900842</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2922,22 +3064,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C68" t="n">
         <v>24.9</v>
       </c>
       <c r="D68" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E68" t="n">
         <v>24.9</v>
       </c>
       <c r="F68" t="n">
-        <v>17172.6408</v>
+        <v>74915.28</v>
       </c>
       <c r="G68" t="n">
-        <v>24.93333333333331</v>
+        <v>-169874.0234190084</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2958,22 +3100,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F69" t="n">
-        <v>1876.82</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>24.93333333333331</v>
+        <v>-169884.0234190084</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2994,22 +3136,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D70" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F70" t="n">
-        <v>17300</v>
+        <v>1582.2226</v>
       </c>
       <c r="G70" t="n">
-        <v>24.96666666666664</v>
+        <v>-168301.8008190084</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3042,10 +3184,10 @@
         <v>24.9</v>
       </c>
       <c r="F71" t="n">
-        <v>3475.7934</v>
+        <v>13417.7774</v>
       </c>
       <c r="G71" t="n">
-        <v>24.96666666666664</v>
+        <v>-168301.8008190084</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3066,28 +3208,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F72" t="n">
-        <v>11887</v>
+        <v>221452.5954</v>
       </c>
       <c r="G72" t="n">
-        <v>24.96666666666664</v>
+        <v>-168301.8008190084</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3105,19 +3247,19 @@
         <v>24.9</v>
       </c>
       <c r="C73" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D73" t="n">
         <v>24.9</v>
       </c>
       <c r="E73" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F73" t="n">
-        <v>72060.56</v>
+        <v>5792.0376</v>
       </c>
       <c r="G73" t="n">
-        <v>24.89999999999997</v>
+        <v>-168301.8008190084</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3138,7 +3280,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C74" t="n">
         <v>25</v>
@@ -3147,19 +3289,19 @@
         <v>25</v>
       </c>
       <c r="E74" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F74" t="n">
-        <v>45301.3765</v>
+        <v>18498.5877</v>
       </c>
       <c r="G74" t="n">
-        <v>24.93333333333331</v>
+        <v>-149803.2131190084</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3186,16 +3328,16 @@
         <v>25</v>
       </c>
       <c r="F75" t="n">
-        <v>1765.9835</v>
+        <v>239999.244</v>
       </c>
       <c r="G75" t="n">
-        <v>24.93333333333331</v>
+        <v>-149803.2131190084</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3210,28 +3352,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="D76" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E76" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="F76" t="n">
-        <v>32520.4357</v>
+        <v>30295.0597</v>
       </c>
       <c r="G76" t="n">
-        <v>24.93333333333331</v>
+        <v>-119508.1534190084</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3246,28 +3388,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="C77" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D77" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="E77" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F77" t="n">
-        <v>92830.2311</v>
+        <v>40419.2799</v>
       </c>
       <c r="G77" t="n">
-        <v>24.86666666666664</v>
+        <v>-159927.4333190084</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3294,16 +3436,16 @@
         <v>24.8</v>
       </c>
       <c r="F78" t="n">
-        <v>67814.1869</v>
+        <v>2404</v>
       </c>
       <c r="G78" t="n">
-        <v>24.79999999999997</v>
+        <v>-157523.4333190084</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3321,19 +3463,19 @@
         <v>24.8</v>
       </c>
       <c r="C79" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D79" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E79" t="n">
         <v>24.8</v>
       </c>
       <c r="F79" t="n">
-        <v>22165</v>
+        <v>11958.4662</v>
       </c>
       <c r="G79" t="n">
-        <v>24.79999999999997</v>
+        <v>-145564.9671190084</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3354,22 +3496,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C80" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="D80" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E80" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="F80" t="n">
-        <v>4811.8859</v>
+        <v>34.7035</v>
       </c>
       <c r="G80" t="n">
-        <v>24.79999999999997</v>
+        <v>-145530.2636190084</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3390,28 +3532,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D81" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F81" t="n">
-        <v>6800</v>
+        <v>1311.578</v>
       </c>
       <c r="G81" t="n">
-        <v>24.76666666666664</v>
+        <v>-146841.8416190084</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3426,22 +3568,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D82" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="E82" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F82" t="n">
-        <v>14000</v>
+        <v>15115.16</v>
       </c>
       <c r="G82" t="n">
-        <v>24.73333333333331</v>
+        <v>-161957.0016190084</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3462,22 +3604,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="C83" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D83" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E83" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F83" t="n">
-        <v>2449.432</v>
+        <v>30253.9388</v>
       </c>
       <c r="G83" t="n">
-        <v>24.69999999999998</v>
+        <v>-161957.0016190084</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3498,22 +3640,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D84" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F84" t="n">
-        <v>27500</v>
+        <v>1446.3911</v>
       </c>
       <c r="G84" t="n">
-        <v>24.69999999999998</v>
+        <v>-160510.6105190084</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3534,22 +3676,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="C85" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D85" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E85" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F85" t="n">
-        <v>50</v>
+        <v>2450.5348</v>
       </c>
       <c r="G85" t="n">
-        <v>24.69999999999998</v>
+        <v>-160510.6105190084</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3570,22 +3712,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="C86" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="D86" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E86" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="F86" t="n">
-        <v>4264.5736</v>
+        <v>435</v>
       </c>
       <c r="G86" t="n">
-        <v>24.66666666666664</v>
+        <v>-160510.6105190084</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3606,28 +3748,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="C87" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="D87" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="E87" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="F87" t="n">
-        <v>24579.1164</v>
+        <v>3951.612</v>
       </c>
       <c r="G87" t="n">
-        <v>24.63333333333331</v>
+        <v>-160510.6105190084</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3642,28 +3784,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="C88" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
-        <v>1570.055</v>
+        <v>14818.5742</v>
       </c>
       <c r="G88" t="n">
-        <v>24.53333333333331</v>
+        <v>-145692.0363190084</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3678,28 +3820,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="C89" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="D89" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="E89" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="F89" t="n">
-        <v>1967</v>
+        <v>29767.3568</v>
       </c>
       <c r="G89" t="n">
-        <v>24.46666666666664</v>
+        <v>-175459.3931190084</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3714,22 +3856,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C90" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D90" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E90" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F90" t="n">
-        <v>5749.9995</v>
+        <v>4960.791</v>
       </c>
       <c r="G90" t="n">
-        <v>24.59999999999998</v>
+        <v>-170498.6021190084</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3753,19 +3895,19 @@
         <v>24.9</v>
       </c>
       <c r="C91" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D91" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E91" t="n">
         <v>24.9</v>
       </c>
       <c r="F91" t="n">
-        <v>4980.8051</v>
+        <v>33495.8634</v>
       </c>
       <c r="G91" t="n">
-        <v>24.79999999999997</v>
+        <v>-170498.6021190084</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3786,28 +3928,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C92" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="D92" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="E92" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>94296</v>
       </c>
       <c r="G92" t="n">
-        <v>25.0333333333333</v>
+        <v>-264794.6021190084</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3822,28 +3964,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="C93" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="D93" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="E93" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F93" t="n">
-        <v>891.0099</v>
+        <v>1006.739</v>
       </c>
       <c r="G93" t="n">
-        <v>25.06666666666663</v>
+        <v>-264794.6021190084</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3858,22 +4000,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="D94" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F94" t="n">
-        <v>157.5248</v>
+        <v>47240.3666</v>
       </c>
       <c r="G94" t="n">
-        <v>25.09999999999997</v>
+        <v>-264794.6021190084</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3894,28 +4036,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="C95" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E95" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>3058.753</v>
       </c>
       <c r="G95" t="n">
-        <v>25.09999999999997</v>
+        <v>-261735.8491190084</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3930,28 +4072,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="C96" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="D96" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E96" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="F96" t="n">
-        <v>1721.6294</v>
+        <v>70591.0003</v>
       </c>
       <c r="G96" t="n">
-        <v>25.09999999999997</v>
+        <v>-332326.8494190084</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3969,25 +4111,25 @@
         <v>24.9</v>
       </c>
       <c r="C97" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D97" t="n">
         <v>24.9</v>
       </c>
       <c r="E97" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F97" t="n">
-        <v>5700</v>
+        <v>17172.6408</v>
       </c>
       <c r="G97" t="n">
-        <v>24.99999999999996</v>
+        <v>-332326.8494190084</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4002,22 +4144,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E98" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
-        <v>7769.916</v>
+        <v>1876.82</v>
       </c>
       <c r="G98" t="n">
-        <v>24.9333333333333</v>
+        <v>-330450.0294190084</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4038,22 +4180,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C99" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E99" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F99" t="n">
-        <v>6582.4512</v>
+        <v>17300</v>
       </c>
       <c r="G99" t="n">
-        <v>24.86666666666664</v>
+        <v>-330450.0294190084</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4086,10 +4228,10 @@
         <v>24.9</v>
       </c>
       <c r="F100" t="n">
-        <v>3828.0564</v>
+        <v>3475.7934</v>
       </c>
       <c r="G100" t="n">
-        <v>24.89999999999997</v>
+        <v>-333925.8228190084</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4110,22 +4252,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E101" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="F101" t="n">
-        <v>15800</v>
+        <v>11887</v>
       </c>
       <c r="G101" t="n">
-        <v>24.86666666666664</v>
+        <v>-322038.8228190084</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4146,22 +4288,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C102" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D102" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E102" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="F102" t="n">
-        <v>11900</v>
+        <v>72060.56</v>
       </c>
       <c r="G102" t="n">
-        <v>24.76666666666663</v>
+        <v>-394099.3828190084</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4182,22 +4324,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="C103" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="E103" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="F103" t="n">
-        <v>3985.694</v>
+        <v>45301.3765</v>
       </c>
       <c r="G103" t="n">
-        <v>24.66666666666663</v>
+        <v>-348798.0063190084</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4218,22 +4360,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="E104" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F104" t="n">
-        <v>26514.2312</v>
+        <v>1765.9835</v>
       </c>
       <c r="G104" t="n">
-        <v>24.56666666666663</v>
+        <v>-348798.0063190084</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4254,28 +4396,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="C105" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="D105" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E105" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="F105" t="n">
-        <v>67230.599</v>
+        <v>32520.4357</v>
       </c>
       <c r="G105" t="n">
-        <v>24.69999999999996</v>
+        <v>-381318.4420190084</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4290,22 +4432,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="C106" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="D106" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="E106" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="F106" t="n">
-        <v>90.53489999999999</v>
+        <v>92830.2311</v>
       </c>
       <c r="G106" t="n">
-        <v>24.66666666666663</v>
+        <v>-381318.4420190084</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4338,10 +4480,10 @@
         <v>24.8</v>
       </c>
       <c r="F107" t="n">
-        <v>8083.9919</v>
+        <v>67814.1869</v>
       </c>
       <c r="G107" t="n">
-        <v>24.76666666666663</v>
+        <v>-381318.4420190084</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4362,22 +4504,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="C108" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D108" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="E108" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="F108" t="n">
-        <v>11857.2825</v>
+        <v>22165</v>
       </c>
       <c r="G108" t="n">
-        <v>24.6333333333333</v>
+        <v>-381318.4420190084</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4398,22 +4540,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="C109" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D109" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="E109" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="F109" t="n">
-        <v>6383.2294</v>
+        <v>4811.8859</v>
       </c>
       <c r="G109" t="n">
-        <v>24.66666666666663</v>
+        <v>-381318.4420190084</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4434,22 +4576,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="C110" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D110" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E110" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F110" t="n">
-        <v>10600</v>
+        <v>6800</v>
       </c>
       <c r="G110" t="n">
-        <v>24.7333333333333</v>
+        <v>-388118.4420190084</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4470,22 +4612,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D111" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E111" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F111" t="n">
-        <v>6314.3917</v>
+        <v>14000</v>
       </c>
       <c r="G111" t="n">
-        <v>24.86666666666663</v>
+        <v>-388118.4420190084</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4506,22 +4648,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C112" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D112" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E112" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F112" t="n">
-        <v>1436</v>
+        <v>2449.432</v>
       </c>
       <c r="G112" t="n">
-        <v>24.99999999999996</v>
+        <v>-388118.4420190084</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4542,22 +4684,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C113" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E113" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F113" t="n">
-        <v>287</v>
+        <v>27500</v>
       </c>
       <c r="G113" t="n">
-        <v>24.99999999999996</v>
+        <v>-388118.4420190084</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4578,22 +4720,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="C114" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D114" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="E114" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="F114" t="n">
-        <v>504</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>24.96666666666663</v>
+        <v>-388118.4420190084</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4617,19 +4759,19 @@
         <v>24.7</v>
       </c>
       <c r="C115" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D115" t="n">
         <v>24.7</v>
       </c>
       <c r="E115" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="F115" t="n">
-        <v>14980.522</v>
+        <v>4264.5736</v>
       </c>
       <c r="G115" t="n">
-        <v>24.86666666666663</v>
+        <v>-392383.0156190085</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4650,22 +4792,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="C116" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D116" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E116" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="F116" t="n">
-        <v>3491.7118</v>
+        <v>24579.1164</v>
       </c>
       <c r="G116" t="n">
-        <v>24.89999999999997</v>
+        <v>-392383.0156190085</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4686,22 +4828,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C117" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="D117" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="E117" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="F117" t="n">
-        <v>251298.3826</v>
+        <v>1570.055</v>
       </c>
       <c r="G117" t="n">
-        <v>24.9333333333333</v>
+        <v>-393953.0706190084</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4722,22 +4864,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="C118" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="D118" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="E118" t="n">
-        <v>25.1</v>
+        <v>24.4</v>
       </c>
       <c r="F118" t="n">
-        <v>62962.9544</v>
+        <v>1967</v>
       </c>
       <c r="G118" t="n">
-        <v>25.09999999999997</v>
+        <v>-393953.0706190084</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4758,22 +4900,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C119" t="n">
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E119" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F119" t="n">
-        <v>18177.2444</v>
+        <v>5749.9995</v>
       </c>
       <c r="G119" t="n">
-        <v>25.06666666666663</v>
+        <v>-388203.0711190085</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4794,22 +4936,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="C120" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="E120" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="F120" t="n">
-        <v>6800</v>
+        <v>4980.8051</v>
       </c>
       <c r="G120" t="n">
-        <v>24.9333333333333</v>
+        <v>-388203.0711190085</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4830,22 +4972,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="C121" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="D121" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="E121" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="F121" t="n">
-        <v>14700</v>
+        <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>24.66666666666663</v>
+        <v>-388173.0711190085</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4866,22 +5008,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="C122" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="D122" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="E122" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="F122" t="n">
-        <v>343</v>
+        <v>891.0099</v>
       </c>
       <c r="G122" t="n">
-        <v>24.49999999999997</v>
+        <v>-388173.0711190085</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4902,22 +5044,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="C123" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="D123" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="E123" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="F123" t="n">
-        <v>7400</v>
+        <v>157.5248</v>
       </c>
       <c r="G123" t="n">
-        <v>24.4333333333333</v>
+        <v>-388173.0711190085</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4938,22 +5080,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="C124" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="D124" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="E124" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="F124" t="n">
-        <v>3800</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>24.4333333333333</v>
+        <v>-388173.0711190085</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4974,22 +5116,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="C125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="D125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="E125" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="F125" t="n">
-        <v>5757.6997</v>
+        <v>1721.6294</v>
       </c>
       <c r="G125" t="n">
-        <v>24.39999999999997</v>
+        <v>-388173.0711190085</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5010,22 +5152,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="C126" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D126" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="E126" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="F126" t="n">
-        <v>1326.5121</v>
+        <v>5700</v>
       </c>
       <c r="G126" t="n">
-        <v>24.46666666666663</v>
+        <v>-393873.0711190085</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5046,22 +5188,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="C127" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="D127" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="E127" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="F127" t="n">
-        <v>6489.4988</v>
+        <v>7769.916</v>
       </c>
       <c r="G127" t="n">
-        <v>24.53333333333329</v>
+        <v>-386103.1551190084</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5082,22 +5224,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="C128" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="D128" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="E128" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="F128" t="n">
-        <v>117802.6883</v>
+        <v>6582.4512</v>
       </c>
       <c r="G128" t="n">
-        <v>24.53333333333329</v>
+        <v>-386103.1551190084</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5118,22 +5260,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="C129" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="D129" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="E129" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="F129" t="n">
-        <v>1603.4831</v>
+        <v>3828.0564</v>
       </c>
       <c r="G129" t="n">
-        <v>24.46666666666663</v>
+        <v>-386103.1551190084</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5154,22 +5296,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="C130" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="D130" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="E130" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="F130" t="n">
-        <v>3610.3342</v>
+        <v>15800</v>
       </c>
       <c r="G130" t="n">
-        <v>24.39999999999997</v>
+        <v>-401903.1551190084</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5185,6 +5327,1050 @@
       </c>
       <c r="N130" t="inlineStr"/>
     </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11900</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-413803.1551190084</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3985.694</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-413803.1551190084</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>26514.2312</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-440317.3863190084</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>25</v>
+      </c>
+      <c r="D134" t="n">
+        <v>25</v>
+      </c>
+      <c r="E134" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>67230.599</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-373086.7873190084</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>90.53489999999999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-373177.3222190085</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8083.9919</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-365093.3303190084</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11857.2825</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-376950.6128190084</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6383.2294</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-376950.6128190084</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>25</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25</v>
+      </c>
+      <c r="E139" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10600</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-366350.6128190084</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>25</v>
+      </c>
+      <c r="C140" t="n">
+        <v>25</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25</v>
+      </c>
+      <c r="E140" t="n">
+        <v>25</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6314.3917</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-366350.6128190084</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25</v>
+      </c>
+      <c r="C141" t="n">
+        <v>25</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1436</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-366350.6128190084</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>25</v>
+      </c>
+      <c r="C142" t="n">
+        <v>25</v>
+      </c>
+      <c r="D142" t="n">
+        <v>25</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25</v>
+      </c>
+      <c r="F142" t="n">
+        <v>287</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-366350.6128190084</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>504</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-366854.6128190084</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14980.522</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-381835.1348190084</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3491.7118</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-378343.4230190084</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>25</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25</v>
+      </c>
+      <c r="D146" t="n">
+        <v>25</v>
+      </c>
+      <c r="E146" t="n">
+        <v>25</v>
+      </c>
+      <c r="F146" t="n">
+        <v>251298.3826</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-629641.8056190084</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>62962.9544</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-566678.8512190083</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>25</v>
+      </c>
+      <c r="F148" t="n">
+        <v>18177.2444</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-584856.0956190083</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-591656.0956190083</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>14700</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-606356.0956190083</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>343</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-606013.0956190083</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-613413.0956190083</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-613413.0956190083</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5757.6997</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-613413.0956190083</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1326.5121</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-612086.5835190082</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6489.4988</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-612086.5835190082</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>117802.6883</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-729889.2718190083</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C158" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D158" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1603.4831</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-729889.2718190083</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3610.3342</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-729889.2718190083</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-27 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-131196.0976190083</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-236166.5703190083</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>23.7</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-234348.9862190082</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>23.5</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-163635.3381190082</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>23.9</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,22 +601,21 @@
         <v>-162183.3480190082</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,22 +640,21 @@
         <v>-162173.3480190082</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,20 +681,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,24 +716,19 @@
         <v>-161717.6101190082</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>24</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,20 +755,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,20 +792,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,20 +829,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -902,20 +866,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,20 +903,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,20 +940,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,20 +977,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1062,20 +1014,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1102,20 +1051,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1142,20 +1088,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1182,20 +1125,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1222,20 +1162,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1262,20 +1199,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1302,20 +1236,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1342,20 +1273,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1382,20 +1310,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,20 +1347,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1462,20 +1384,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,20 +1421,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1542,20 +1458,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1582,20 +1495,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1622,20 +1532,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1662,20 +1569,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1702,20 +1606,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1742,20 +1643,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1782,20 +1680,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1822,20 +1717,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1862,20 +1754,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1902,20 +1791,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1942,20 +1828,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1982,20 +1865,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2022,20 +1902,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2062,20 +1939,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2102,20 +1976,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2142,20 +2013,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2182,20 +2050,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2222,20 +2087,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2262,20 +2124,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,20 +2161,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2342,20 +2198,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2382,20 +2235,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2422,20 +2272,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2462,20 +2309,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2502,20 +2346,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2542,20 +2383,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2582,20 +2420,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2622,20 +2457,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2662,20 +2494,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2702,20 +2531,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2742,20 +2568,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2782,20 +2605,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2822,20 +2642,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2862,20 +2679,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,18 +2716,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2940,16 +2753,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2974,18 +2788,17 @@
         <v>-173455.9841190084</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3010,18 +2823,15 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3046,18 +2856,15 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3084,16 +2891,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3118,18 +2922,15 @@
         <v>-169884.0234190084</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3154,18 +2955,15 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3190,18 +2988,15 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3226,18 +3021,15 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3264,16 +3056,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3300,16 +3089,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3336,16 +3122,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3372,16 +3155,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3406,18 +3186,15 @@
         <v>-159927.4333190084</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3442,18 +3219,15 @@
         <v>-157523.4333190084</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3478,18 +3252,15 @@
         <v>-145564.9671190084</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3514,18 +3285,15 @@
         <v>-145530.2636190084</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3550,18 +3318,15 @@
         <v>-146841.8416190084</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3586,18 +3351,15 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3622,18 +3384,15 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3658,18 +3417,15 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3696,16 +3452,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3730,18 +3483,15 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3768,16 +3518,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3804,16 +3551,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3840,16 +3584,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3876,16 +3617,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3912,16 +3650,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3948,16 +3683,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3984,16 +3716,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4020,16 +3749,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4056,16 +3782,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4092,16 +3815,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4128,16 +3848,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4164,16 +3881,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4200,16 +3914,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4236,16 +3947,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4272,16 +3980,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4308,16 +4013,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4344,16 +4046,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4380,16 +4079,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4416,16 +4112,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4452,16 +4145,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4488,16 +4178,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4524,16 +4211,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4560,16 +4244,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4596,16 +4277,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4632,16 +4310,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4668,16 +4343,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4704,16 +4376,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4740,16 +4409,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4776,16 +4442,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4812,16 +4475,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4848,16 +4508,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4884,16 +4541,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4920,16 +4574,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4956,16 +4607,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4992,16 +4640,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5028,16 +4673,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5064,16 +4706,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5100,16 +4739,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5136,16 +4772,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5172,16 +4805,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5208,16 +4838,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5244,16 +4871,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5280,16 +4904,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5316,16 +4937,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5352,16 +4970,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5386,18 +5001,15 @@
         <v>-413803.1551190084</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5424,16 +5036,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5460,16 +5069,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5496,16 +5102,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5530,18 +5133,15 @@
         <v>-365093.3303190084</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5568,16 +5168,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5604,16 +5201,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5638,18 +5232,15 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5676,16 +5267,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5712,16 +5300,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5748,16 +5333,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5784,16 +5366,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5820,16 +5399,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5856,16 +5432,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5892,16 +5465,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5928,16 +5498,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5964,16 +5531,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6000,16 +5564,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6036,16 +5597,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6072,16 +5630,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6108,16 +5663,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6144,16 +5696,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6180,16 +5729,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6216,16 +5762,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6250,18 +5793,15 @@
         <v>-612086.5835190082</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6288,16 +5828,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6324,16 +5861,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6360,18 +5894,15 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-27 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-131196.0976190083</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-236166.5703190083</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>23.7</v>
@@ -523,11 +523,9 @@
         <v>-234348.9862190082</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -562,11 +560,9 @@
         <v>-163635.3381190082</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +597,9 @@
         <v>-162183.3480190082</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +634,9 @@
         <v>-162173.3480190082</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -2788,16 +2780,18 @@
         <v>-173455.9841190084</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
       <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2823,11 +2817,15 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2856,11 +2854,15 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2893,7 +2895,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2922,11 +2928,15 @@
         <v>-169884.0234190084</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2955,11 +2965,15 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2988,14 +3002,16 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3021,7 +3037,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3186,7 +3202,7 @@
         <v>-159927.4333190084</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3219,7 +3235,7 @@
         <v>-157523.4333190084</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3252,7 +3268,7 @@
         <v>-145564.9671190084</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3285,7 +3301,7 @@
         <v>-145530.2636190084</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3318,7 +3334,7 @@
         <v>-146841.8416190084</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3351,7 +3367,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3384,7 +3400,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3417,7 +3433,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3450,7 +3466,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3483,7 +3499,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3516,7 +3532,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3549,7 +3565,7 @@
         <v>-145692.0363190084</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3582,7 +3598,7 @@
         <v>-175459.3931190084</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3615,7 +3631,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3648,7 +3664,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3681,7 +3697,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3714,7 +3730,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3747,7 +3763,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3780,7 +3796,7 @@
         <v>-261735.8491190084</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3813,7 +3829,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3846,7 +3862,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3879,7 +3895,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3912,7 +3928,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3945,7 +3961,7 @@
         <v>-333925.8228190084</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3978,7 +3994,7 @@
         <v>-322038.8228190084</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4011,7 +4027,7 @@
         <v>-394099.3828190084</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4044,7 +4060,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4077,7 +4093,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4110,7 +4126,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4143,7 +4159,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4176,7 +4192,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4209,7 +4225,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4242,7 +4258,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4275,7 +4291,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4308,7 +4324,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4341,7 +4357,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4374,7 +4390,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4407,7 +4423,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4440,7 +4456,7 @@
         <v>-392383.0156190085</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4473,7 +4489,7 @@
         <v>-392383.0156190085</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4506,7 +4522,7 @@
         <v>-393953.0706190084</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4539,7 +4555,7 @@
         <v>-393953.0706190084</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4572,7 +4588,7 @@
         <v>-388203.0711190085</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4605,7 +4621,7 @@
         <v>-388203.0711190085</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4638,7 +4654,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4704,7 +4720,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4737,7 +4753,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4770,7 +4786,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4803,7 +4819,7 @@
         <v>-393873.0711190085</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4836,7 +4852,7 @@
         <v>-386103.1551190084</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4869,7 +4885,7 @@
         <v>-386103.1551190084</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4902,7 +4918,7 @@
         <v>-386103.1551190084</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4935,7 +4951,7 @@
         <v>-401903.1551190084</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4968,7 +4984,7 @@
         <v>-413803.1551190084</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5001,7 +5017,7 @@
         <v>-413803.1551190084</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5034,7 +5050,7 @@
         <v>-440317.3863190084</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5067,7 +5083,7 @@
         <v>-373086.7873190084</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5100,7 +5116,7 @@
         <v>-373177.3222190085</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5133,7 +5149,7 @@
         <v>-365093.3303190084</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5166,7 +5182,7 @@
         <v>-376950.6128190084</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5199,7 +5215,7 @@
         <v>-376950.6128190084</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5232,7 +5248,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5265,7 +5281,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5298,7 +5314,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5331,7 +5347,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5397,7 +5413,7 @@
         <v>-381835.1348190084</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5430,7 +5446,7 @@
         <v>-378343.4230190084</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5463,7 +5479,7 @@
         <v>-629641.8056190084</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5496,7 +5512,7 @@
         <v>-566678.8512190083</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5793,7 +5809,7 @@
         <v>-612086.5835190082</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5892,10 +5908,14 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J159" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5903,6 +5923,6 @@
       <c r="M159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-27 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -967,18 +967,16 @@
         <v>-145194.8870190082</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1004,15 +1002,11 @@
         <v>-186049.1169190082</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,15 +1035,11 @@
         <v>-185974.0763190082</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,15 +1068,11 @@
         <v>-185986.2125190082</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1105,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1138,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1171,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1204,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1237,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1270,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1303,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1336,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1369,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1402,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1435,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1468,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1559,15 +1497,11 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,15 +1530,11 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1633,15 +1563,11 @@
         <v>-199207.7374045749</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1670,15 +1596,11 @@
         <v>-293426.8429045749</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1707,15 +1629,11 @@
         <v>-292632.0612045749</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1744,15 +1662,11 @@
         <v>-291311.803204575</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1781,15 +1695,11 @@
         <v>-263385.024904575</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1732,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1855,15 +1761,11 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1892,15 +1794,11 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1929,15 +1827,11 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1864,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1897,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2040,15 +1926,11 @@
         <v>-320791.337604575</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2077,15 +1959,11 @@
         <v>-358604.099304575</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1996,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2029,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2062,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2095,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2128,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2161,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2194,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2373,15 +2223,11 @@
         <v>-341304.099304575</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2410,15 +2256,11 @@
         <v>-330968.507504575</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2447,15 +2289,11 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2484,15 +2322,11 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2525,11 +2359,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2562,11 +2392,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2595,15 +2421,11 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2632,15 +2454,11 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,15 +2487,11 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2710,11 +2524,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2743,15 +2553,11 @@
         <v>-173455.9841190084</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +2590,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2623,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +2656,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2689,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2932,11 +2722,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2755,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3002,16 +2784,14 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
       <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3037,7 +2817,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3301,7 +3081,7 @@
         <v>-145530.2636190084</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3334,7 +3114,7 @@
         <v>-146841.8416190084</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3367,7 +3147,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3466,7 +3246,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3532,7 +3312,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3565,7 +3345,7 @@
         <v>-145692.0363190084</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3598,7 +3378,7 @@
         <v>-175459.3931190084</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3631,7 +3411,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3664,7 +3444,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3697,7 +3477,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3730,7 +3510,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3763,7 +3543,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3796,7 +3576,7 @@
         <v>-261735.8491190084</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3829,7 +3609,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3862,7 +3642,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3895,7 +3675,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3928,7 +3708,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3961,7 +3741,7 @@
         <v>-333925.8228190084</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3994,7 +3774,7 @@
         <v>-322038.8228190084</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4027,7 +3807,7 @@
         <v>-394099.3828190084</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4060,7 +3840,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4126,7 +3906,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4159,7 +3939,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4192,7 +3972,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4225,7 +4005,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4258,7 +4038,7 @@
         <v>-381318.4420190084</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4291,7 +4071,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4324,7 +4104,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4357,7 +4137,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4390,7 +4170,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4423,7 +4203,7 @@
         <v>-388118.4420190084</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4456,7 +4236,7 @@
         <v>-392383.0156190085</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4489,7 +4269,7 @@
         <v>-392383.0156190085</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4522,7 +4302,7 @@
         <v>-393953.0706190084</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4555,7 +4335,7 @@
         <v>-393953.0706190084</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4588,7 +4368,7 @@
         <v>-388203.0711190085</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4621,7 +4401,7 @@
         <v>-388203.0711190085</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4654,7 +4434,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4720,7 +4500,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4753,7 +4533,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4786,7 +4566,7 @@
         <v>-388173.0711190085</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4819,7 +4599,7 @@
         <v>-393873.0711190085</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4852,7 +4632,7 @@
         <v>-386103.1551190084</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4885,7 +4665,7 @@
         <v>-386103.1551190084</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4918,7 +4698,7 @@
         <v>-386103.1551190084</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4951,7 +4731,7 @@
         <v>-401903.1551190084</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4984,7 +4764,7 @@
         <v>-413803.1551190084</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5017,7 +4797,7 @@
         <v>-413803.1551190084</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5050,7 +4830,7 @@
         <v>-440317.3863190084</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5083,7 +4863,7 @@
         <v>-373086.7873190084</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5116,7 +4896,7 @@
         <v>-373177.3222190085</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5149,7 +4929,7 @@
         <v>-365093.3303190084</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5182,7 +4962,7 @@
         <v>-376950.6128190084</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5215,7 +4995,7 @@
         <v>-376950.6128190084</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5248,7 +5028,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5281,7 +5061,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5314,7 +5094,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5347,7 +5127,7 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5413,7 +5193,7 @@
         <v>-381835.1348190084</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5446,7 +5226,7 @@
         <v>-378343.4230190084</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5479,7 +5259,7 @@
         <v>-629641.8056190084</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5512,7 +5292,7 @@
         <v>-566678.8512190083</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5644,10 +5424,14 @@
         <v>-606013.0956190083</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5680,8 +5464,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +5503,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5908,14 +5704,10 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J159" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5923,6 +5715,6 @@
       <c r="M159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-27 BackTest LOOM.xlsx
@@ -451,7 +451,7 @@
         <v>-131196.0976190083</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-236166.5703190083</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,16 +913,14 @@
         <v>-145194.8870190082</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1002,7 +946,7 @@
         <v>-186049.1169190082</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1035,7 +979,7 @@
         <v>-185974.0763190082</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1068,7 +1012,7 @@
         <v>-185986.2125190082</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1497,7 +1441,7 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1530,7 +1474,7 @@
         <v>-176885.8188045749</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1563,7 +1507,7 @@
         <v>-199207.7374045749</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1596,7 +1540,7 @@
         <v>-293426.8429045749</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1629,7 +1573,7 @@
         <v>-292632.0612045749</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1662,7 +1606,7 @@
         <v>-291311.803204575</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1695,7 +1639,7 @@
         <v>-263385.024904575</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1761,7 +1705,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1794,7 +1738,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1827,7 +1771,7 @@
         <v>-270456.650404575</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1926,7 +1870,7 @@
         <v>-320791.337604575</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1959,7 +1903,7 @@
         <v>-358604.099304575</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2223,7 +2167,7 @@
         <v>-341304.099304575</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2256,7 +2200,7 @@
         <v>-330968.507504575</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2289,7 +2233,7 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2322,7 +2266,7 @@
         <v>-360309.968504575</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2421,7 +2365,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2454,7 +2398,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2487,7 +2431,7 @@
         <v>-279730.1699696157</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2553,7 +2497,7 @@
         <v>-173455.9841190084</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2619,7 +2563,7 @@
         <v>-94958.74341900842</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2685,7 +2629,7 @@
         <v>-169874.0234190084</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2662,7 @@
         <v>-169884.0234190084</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2850,7 +2794,7 @@
         <v>-168301.8008190084</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2883,7 +2827,7 @@
         <v>-149803.2131190084</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2916,7 +2860,7 @@
         <v>-149803.2131190084</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2949,7 +2893,7 @@
         <v>-119508.1534190084</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2982,7 +2926,7 @@
         <v>-159927.4333190084</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3015,7 +2959,7 @@
         <v>-157523.4333190084</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3048,7 +2992,7 @@
         <v>-145564.9671190084</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3114,7 +3058,7 @@
         <v>-146841.8416190084</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3147,7 +3091,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3180,7 +3124,7 @@
         <v>-161957.0016190084</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3246,7 +3190,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3279,7 +3223,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3312,7 +3256,7 @@
         <v>-160510.6105190084</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3345,7 +3289,7 @@
         <v>-145692.0363190084</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3378,7 +3322,7 @@
         <v>-175459.3931190084</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3411,7 +3355,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3444,7 +3388,7 @@
         <v>-170498.6021190084</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3477,7 +3421,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3510,7 +3454,7 @@
         <v>-264794.6021190084</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3576,7 +3520,7 @@
         <v>-261735.8491190084</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3609,7 +3553,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3642,7 +3586,7 @@
         <v>-332326.8494190084</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3675,7 +3619,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3708,7 +3652,7 @@
         <v>-330450.0294190084</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3741,7 +3685,7 @@
         <v>-333925.8228190084</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3774,7 +3718,7 @@
         <v>-322038.8228190084</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3807,7 +3751,7 @@
         <v>-394099.3828190084</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3840,7 +3784,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3873,7 +3817,7 @@
         <v>-348798.0063190084</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -5028,10 +4972,14 @@
         <v>-366350.6128190084</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J139" t="n">
+        <v>24.6</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
@@ -5064,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5097,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5325,7 +5285,7 @@
         <v>-584856.0956190083</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5500,9 +5460,11 @@
         <v>-613413.0956190083</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J153" t="n">
         <v>24.4</v>
       </c>
@@ -5539,10 +5501,14 @@
         <v>-613413.0956190083</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5572,11 +5538,19 @@
         <v>-612086.5835190082</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J155" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5579,19 @@
         <v>-612086.5835190082</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J156" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5620,19 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J157" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5671,11 +5661,19 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J158" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +5702,19 @@
         <v>-729889.2718190083</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J159" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-27 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3803.421</v>
       </c>
       <c r="G2" t="n">
-        <v>-131196.0976190083</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>104970.4727</v>
       </c>
       <c r="G3" t="n">
-        <v>-236166.5703190083</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>1817.5841</v>
       </c>
       <c r="G4" t="n">
-        <v>-234348.9862190082</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>70713.64810000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-163635.3381190082</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,19 @@
         <v>1451.9901</v>
       </c>
       <c r="G6" t="n">
-        <v>-162183.3480190082</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +615,19 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-162173.3480190082</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +649,19 @@
         <v>5530.2916</v>
       </c>
       <c r="G8" t="n">
-        <v>-167703.6396190082</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +683,21 @@
         <v>5986.0295</v>
       </c>
       <c r="G9" t="n">
-        <v>-161717.6101190082</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,19 @@
         <v>5415.9151</v>
       </c>
       <c r="G10" t="n">
-        <v>-156301.6950190082</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +753,21 @@
         <v>6802.3942</v>
       </c>
       <c r="G11" t="n">
-        <v>-156301.6950190082</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +789,19 @@
         <v>12000</v>
       </c>
       <c r="G12" t="n">
-        <v>-144301.6950190082</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +823,19 @@
         <v>1837.2469</v>
       </c>
       <c r="G13" t="n">
-        <v>-146138.9419190082</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +857,19 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-146128.9419190082</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +891,19 @@
         <v>8474.8087</v>
       </c>
       <c r="G15" t="n">
-        <v>-146128.9419190082</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +925,19 @@
         <v>934.0549</v>
       </c>
       <c r="G16" t="n">
-        <v>-145194.8870190082</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +959,19 @@
         <v>40854.2299</v>
       </c>
       <c r="G17" t="n">
-        <v>-186049.1169190082</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +993,19 @@
         <v>75.0406</v>
       </c>
       <c r="G18" t="n">
-        <v>-185974.0763190082</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1027,19 @@
         <v>12.1362</v>
       </c>
       <c r="G19" t="n">
-        <v>-185986.2125190082</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1061,19 @@
         <v>5379</v>
       </c>
       <c r="G20" t="n">
-        <v>-185986.2125190082</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1095,19 @@
         <v>15000</v>
       </c>
       <c r="G21" t="n">
-        <v>-185986.2125190082</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1129,19 @@
         <v>5820.128849392712</v>
       </c>
       <c r="G22" t="n">
-        <v>-180166.0836696155</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1163,19 @@
         <v>12223</v>
       </c>
       <c r="G23" t="n">
-        <v>-192389.0836696155</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1197,19 @@
         <v>4849.1224</v>
       </c>
       <c r="G24" t="n">
-        <v>-187539.9612696155</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1231,19 @@
         <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>-187739.9612696155</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1265,19 @@
         <v>87</v>
       </c>
       <c r="G26" t="n">
-        <v>-187826.9612696155</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1299,19 @@
         <v>2625.3526</v>
       </c>
       <c r="G27" t="n">
-        <v>-190452.3138696156</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1333,19 @@
         <v>13365.9981</v>
       </c>
       <c r="G28" t="n">
-        <v>-190452.3138696156</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1367,19 @@
         <v>2326.8256</v>
       </c>
       <c r="G29" t="n">
-        <v>-188125.4882696155</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1401,19 @@
         <v>2933.1654</v>
       </c>
       <c r="G30" t="n">
-        <v>-185192.3228696155</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1435,19 @@
         <v>7900</v>
       </c>
       <c r="G31" t="n">
-        <v>-177292.3228696155</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1469,19 @@
         <v>406.5040650406504</v>
       </c>
       <c r="G32" t="n">
-        <v>-176885.8188045749</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1503,19 @@
         <v>119419.2274</v>
       </c>
       <c r="G33" t="n">
-        <v>-176885.8188045749</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1537,19 @@
         <v>22321.9186</v>
       </c>
       <c r="G34" t="n">
-        <v>-199207.7374045749</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1571,19 @@
         <v>94219.10550000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-293426.8429045749</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1605,19 @@
         <v>794.7817</v>
       </c>
       <c r="G36" t="n">
-        <v>-292632.0612045749</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1639,19 @@
         <v>1320.258</v>
       </c>
       <c r="G37" t="n">
-        <v>-291311.803204575</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1673,19 @@
         <v>27926.7783</v>
       </c>
       <c r="G38" t="n">
-        <v>-263385.024904575</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1707,19 @@
         <v>18266.6255</v>
       </c>
       <c r="G39" t="n">
-        <v>-281651.650404575</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1741,19 @@
         <v>11195</v>
       </c>
       <c r="G40" t="n">
-        <v>-270456.650404575</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1775,19 @@
         <v>4126.1365</v>
       </c>
       <c r="G41" t="n">
-        <v>-270456.650404575</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1809,19 @@
         <v>2945.489</v>
       </c>
       <c r="G42" t="n">
-        <v>-270456.650404575</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1843,19 @@
         <v>12086</v>
       </c>
       <c r="G43" t="n">
-        <v>-270456.650404575</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1877,19 @@
         <v>50334.6872</v>
       </c>
       <c r="G44" t="n">
-        <v>-320791.337604575</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1911,19 @@
         <v>12591.6203</v>
       </c>
       <c r="G45" t="n">
-        <v>-320791.337604575</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1945,19 @@
         <v>37812.7617</v>
       </c>
       <c r="G46" t="n">
-        <v>-358604.099304575</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1979,19 @@
         <v>17300</v>
       </c>
       <c r="G47" t="n">
-        <v>-341304.099304575</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2013,19 @@
         <v>1037.0944</v>
       </c>
       <c r="G48" t="n">
-        <v>-341304.099304575</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2047,19 @@
         <v>245.9016</v>
       </c>
       <c r="G49" t="n">
-        <v>-341304.099304575</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2081,19 @@
         <v>15933.3564</v>
       </c>
       <c r="G50" t="n">
-        <v>-341304.099304575</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2115,19 @@
         <v>1375</v>
       </c>
       <c r="G51" t="n">
-        <v>-341304.099304575</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2149,19 @@
         <v>36800</v>
       </c>
       <c r="G52" t="n">
-        <v>-341304.099304575</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2183,19 @@
         <v>5015.3419</v>
       </c>
       <c r="G53" t="n">
-        <v>-346319.441204575</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2217,19 @@
         <v>5015.3419</v>
       </c>
       <c r="G54" t="n">
-        <v>-341304.099304575</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2251,19 @@
         <v>10335.5918</v>
       </c>
       <c r="G55" t="n">
-        <v>-330968.507504575</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2285,19 @@
         <v>29341.461</v>
       </c>
       <c r="G56" t="n">
-        <v>-360309.968504575</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2319,19 @@
         <v>13931.4897</v>
       </c>
       <c r="G57" t="n">
-        <v>-360309.968504575</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2353,19 @@
         <v>19356.8332</v>
       </c>
       <c r="G58" t="n">
-        <v>-340953.135304575</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2387,19 @@
         <v>7743.7463</v>
       </c>
       <c r="G59" t="n">
-        <v>-340953.135304575</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2421,19 @@
         <v>61222.96533495935</v>
       </c>
       <c r="G60" t="n">
-        <v>-279730.1699696157</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2455,19 @@
         <v>110895.1193506073</v>
       </c>
       <c r="G61" t="n">
-        <v>-279730.1699696157</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2489,19 @@
         <v>27829.17370481928</v>
       </c>
       <c r="G62" t="n">
-        <v>-279730.1699696157</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2523,19 @@
         <v>4.9392712550607e-05</v>
       </c>
       <c r="G63" t="n">
-        <v>-279730.1699696157</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2557,19 @@
         <v>106274.1858506073</v>
       </c>
       <c r="G64" t="n">
-        <v>-173455.9841190084</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2591,19 @@
         <v>207790.2748951807</v>
       </c>
       <c r="G65" t="n">
-        <v>-173455.9841190084</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2625,19 @@
         <v>78497.24069999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-94958.74341900842</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2659,19 @@
         <v>9745.8799</v>
       </c>
       <c r="G67" t="n">
-        <v>-94958.74341900842</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2693,19 @@
         <v>74915.28</v>
       </c>
       <c r="G68" t="n">
-        <v>-169874.0234190084</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2727,19 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-169884.0234190084</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2761,19 @@
         <v>1582.2226</v>
       </c>
       <c r="G70" t="n">
-        <v>-168301.8008190084</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2795,19 @@
         <v>13417.7774</v>
       </c>
       <c r="G71" t="n">
-        <v>-168301.8008190084</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2829,19 @@
         <v>221452.5954</v>
       </c>
       <c r="G72" t="n">
-        <v>-168301.8008190084</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2863,19 @@
         <v>5792.0376</v>
       </c>
       <c r="G73" t="n">
-        <v>-168301.8008190084</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2897,19 @@
         <v>18498.5877</v>
       </c>
       <c r="G74" t="n">
-        <v>-149803.2131190084</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2931,19 @@
         <v>239999.244</v>
       </c>
       <c r="G75" t="n">
-        <v>-149803.2131190084</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2965,19 @@
         <v>30295.0597</v>
       </c>
       <c r="G76" t="n">
-        <v>-119508.1534190084</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2999,19 @@
         <v>40419.2799</v>
       </c>
       <c r="G77" t="n">
-        <v>-159927.4333190084</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3033,19 @@
         <v>2404</v>
       </c>
       <c r="G78" t="n">
-        <v>-157523.4333190084</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3067,19 @@
         <v>11958.4662</v>
       </c>
       <c r="G79" t="n">
-        <v>-145564.9671190084</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3101,17 @@
         <v>34.7035</v>
       </c>
       <c r="G80" t="n">
-        <v>-145530.2636190084</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3133,15 @@
         <v>1311.578</v>
       </c>
       <c r="G81" t="n">
-        <v>-146841.8416190084</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3163,15 @@
         <v>15115.16</v>
       </c>
       <c r="G82" t="n">
-        <v>-161957.0016190084</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3193,15 @@
         <v>30253.9388</v>
       </c>
       <c r="G83" t="n">
-        <v>-161957.0016190084</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3223,15 @@
         <v>1446.3911</v>
       </c>
       <c r="G84" t="n">
-        <v>-160510.6105190084</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3253,15 @@
         <v>2450.5348</v>
       </c>
       <c r="G85" t="n">
-        <v>-160510.6105190084</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3283,15 @@
         <v>435</v>
       </c>
       <c r="G86" t="n">
-        <v>-160510.6105190084</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3313,15 @@
         <v>3951.612</v>
       </c>
       <c r="G87" t="n">
-        <v>-160510.6105190084</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3343,15 @@
         <v>14818.5742</v>
       </c>
       <c r="G88" t="n">
-        <v>-145692.0363190084</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3373,15 @@
         <v>29767.3568</v>
       </c>
       <c r="G89" t="n">
-        <v>-175459.3931190084</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3403,15 @@
         <v>4960.791</v>
       </c>
       <c r="G90" t="n">
-        <v>-170498.6021190084</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3433,15 @@
         <v>33495.8634</v>
       </c>
       <c r="G91" t="n">
-        <v>-170498.6021190084</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3463,15 @@
         <v>94296</v>
       </c>
       <c r="G92" t="n">
-        <v>-264794.6021190084</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3493,15 @@
         <v>1006.739</v>
       </c>
       <c r="G93" t="n">
-        <v>-264794.6021190084</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3523,15 @@
         <v>47240.3666</v>
       </c>
       <c r="G94" t="n">
-        <v>-264794.6021190084</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3553,15 @@
         <v>3058.753</v>
       </c>
       <c r="G95" t="n">
-        <v>-261735.8491190084</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3583,15 @@
         <v>70591.0003</v>
       </c>
       <c r="G96" t="n">
-        <v>-332326.8494190084</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3613,15 @@
         <v>17172.6408</v>
       </c>
       <c r="G97" t="n">
-        <v>-332326.8494190084</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3643,15 @@
         <v>1876.82</v>
       </c>
       <c r="G98" t="n">
-        <v>-330450.0294190084</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3673,15 @@
         <v>17300</v>
       </c>
       <c r="G99" t="n">
-        <v>-330450.0294190084</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3703,15 @@
         <v>3475.7934</v>
       </c>
       <c r="G100" t="n">
-        <v>-333925.8228190084</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3733,15 @@
         <v>11887</v>
       </c>
       <c r="G101" t="n">
-        <v>-322038.8228190084</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3763,15 @@
         <v>72060.56</v>
       </c>
       <c r="G102" t="n">
-        <v>-394099.3828190084</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3793,15 @@
         <v>45301.3765</v>
       </c>
       <c r="G103" t="n">
-        <v>-348798.0063190084</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3823,15 @@
         <v>1765.9835</v>
       </c>
       <c r="G104" t="n">
-        <v>-348798.0063190084</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3853,15 @@
         <v>32520.4357</v>
       </c>
       <c r="G105" t="n">
-        <v>-381318.4420190084</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3883,15 @@
         <v>92830.2311</v>
       </c>
       <c r="G106" t="n">
-        <v>-381318.4420190084</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3913,15 @@
         <v>67814.1869</v>
       </c>
       <c r="G107" t="n">
-        <v>-381318.4420190084</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3943,15 @@
         <v>22165</v>
       </c>
       <c r="G108" t="n">
-        <v>-381318.4420190084</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3973,15 @@
         <v>4811.8859</v>
       </c>
       <c r="G109" t="n">
-        <v>-381318.4420190084</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4003,15 @@
         <v>6800</v>
       </c>
       <c r="G110" t="n">
-        <v>-388118.4420190084</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4033,15 @@
         <v>14000</v>
       </c>
       <c r="G111" t="n">
-        <v>-388118.4420190084</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4063,15 @@
         <v>2449.432</v>
       </c>
       <c r="G112" t="n">
-        <v>-388118.4420190084</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4093,15 @@
         <v>27500</v>
       </c>
       <c r="G113" t="n">
-        <v>-388118.4420190084</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4123,15 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>-388118.4420190084</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4153,15 @@
         <v>4264.5736</v>
       </c>
       <c r="G115" t="n">
-        <v>-392383.0156190085</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4183,15 @@
         <v>24579.1164</v>
       </c>
       <c r="G116" t="n">
-        <v>-392383.0156190085</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4213,15 @@
         <v>1570.055</v>
       </c>
       <c r="G117" t="n">
-        <v>-393953.0706190084</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4243,15 @@
         <v>1967</v>
       </c>
       <c r="G118" t="n">
-        <v>-393953.0706190084</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4273,15 @@
         <v>5749.9995</v>
       </c>
       <c r="G119" t="n">
-        <v>-388203.0711190085</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4303,15 @@
         <v>4980.8051</v>
       </c>
       <c r="G120" t="n">
-        <v>-388203.0711190085</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4333,15 @@
         <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>-388173.0711190085</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4363,15 @@
         <v>891.0099</v>
       </c>
       <c r="G122" t="n">
-        <v>-388173.0711190085</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4393,15 @@
         <v>157.5248</v>
       </c>
       <c r="G123" t="n">
-        <v>-388173.0711190085</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4423,15 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-388173.0711190085</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4453,15 @@
         <v>1721.6294</v>
       </c>
       <c r="G125" t="n">
-        <v>-388173.0711190085</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4483,15 @@
         <v>5700</v>
       </c>
       <c r="G126" t="n">
-        <v>-393873.0711190085</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4513,15 @@
         <v>7769.916</v>
       </c>
       <c r="G127" t="n">
-        <v>-386103.1551190084</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4543,15 @@
         <v>6582.4512</v>
       </c>
       <c r="G128" t="n">
-        <v>-386103.1551190084</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4573,15 @@
         <v>3828.0564</v>
       </c>
       <c r="G129" t="n">
-        <v>-386103.1551190084</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4603,15 @@
         <v>15800</v>
       </c>
       <c r="G130" t="n">
-        <v>-401903.1551190084</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4633,15 @@
         <v>11900</v>
       </c>
       <c r="G131" t="n">
-        <v>-413803.1551190084</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4663,15 @@
         <v>3985.694</v>
       </c>
       <c r="G132" t="n">
-        <v>-413803.1551190084</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4693,15 @@
         <v>26514.2312</v>
       </c>
       <c r="G133" t="n">
-        <v>-440317.3863190084</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4723,15 @@
         <v>67230.599</v>
       </c>
       <c r="G134" t="n">
-        <v>-373086.7873190084</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4753,15 @@
         <v>90.53489999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>-373177.3222190085</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4783,15 @@
         <v>8083.9919</v>
       </c>
       <c r="G136" t="n">
-        <v>-365093.3303190084</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4813,15 @@
         <v>11857.2825</v>
       </c>
       <c r="G137" t="n">
-        <v>-376950.6128190084</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4843,15 @@
         <v>6383.2294</v>
       </c>
       <c r="G138" t="n">
-        <v>-376950.6128190084</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,22 +4873,15 @@
         <v>10600</v>
       </c>
       <c r="G139" t="n">
-        <v>-366350.6128190084</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J139" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5006,24 +4903,15 @@
         <v>6314.3917</v>
       </c>
       <c r="G140" t="n">
-        <v>-366350.6128190084</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5045,24 +4933,15 @@
         <v>1436</v>
       </c>
       <c r="G141" t="n">
-        <v>-366350.6128190084</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5084,18 +4963,15 @@
         <v>287</v>
       </c>
       <c r="G142" t="n">
-        <v>-366350.6128190084</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5117,18 +4993,15 @@
         <v>504</v>
       </c>
       <c r="G143" t="n">
-        <v>-366854.6128190084</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5150,18 +5023,15 @@
         <v>14980.522</v>
       </c>
       <c r="G144" t="n">
-        <v>-381835.1348190084</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5183,18 +5053,15 @@
         <v>3491.7118</v>
       </c>
       <c r="G145" t="n">
-        <v>-378343.4230190084</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5216,18 +5083,15 @@
         <v>251298.3826</v>
       </c>
       <c r="G146" t="n">
-        <v>-629641.8056190084</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5249,18 +5113,15 @@
         <v>62962.9544</v>
       </c>
       <c r="G147" t="n">
-        <v>-566678.8512190083</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5282,18 +5143,15 @@
         <v>18177.2444</v>
       </c>
       <c r="G148" t="n">
-        <v>-584856.0956190083</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5315,18 +5173,15 @@
         <v>6800</v>
       </c>
       <c r="G149" t="n">
-        <v>-591656.0956190083</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5348,18 +5203,15 @@
         <v>14700</v>
       </c>
       <c r="G150" t="n">
-        <v>-606356.0956190083</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5381,22 +5233,15 @@
         <v>343</v>
       </c>
       <c r="G151" t="n">
-        <v>-606013.0956190083</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J151" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5418,24 +5263,15 @@
         <v>7400</v>
       </c>
       <c r="G152" t="n">
-        <v>-613413.0956190083</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5457,26 +5293,15 @@
         <v>3800</v>
       </c>
       <c r="G153" t="n">
-        <v>-613413.0956190083</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5498,22 +5323,15 @@
         <v>5757.6997</v>
       </c>
       <c r="G154" t="n">
-        <v>-613413.0956190083</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J154" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5535,26 +5353,15 @@
         <v>1326.5121</v>
       </c>
       <c r="G155" t="n">
-        <v>-612086.5835190082</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J155" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5576,26 +5383,15 @@
         <v>6489.4988</v>
       </c>
       <c r="G156" t="n">
-        <v>-612086.5835190082</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J156" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5617,26 +5413,15 @@
         <v>117802.6883</v>
       </c>
       <c r="G157" t="n">
-        <v>-729889.2718190083</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5658,26 +5443,15 @@
         <v>1603.4831</v>
       </c>
       <c r="G158" t="n">
-        <v>-729889.2718190083</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J158" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5699,26 +5473,15 @@
         <v>3610.3342</v>
       </c>
       <c r="G159" t="n">
-        <v>-729889.2718190083</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J159" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
